--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C9BBE-4C12-2445-A969-809DE5774F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874C2BE-635D-314E-BF65-67EE0AB2FFD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6940" yWindow="4200" windowWidth="25560" windowHeight="22980" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>assignments/#labs</t>
   </si>
   <si>
-    <t>Final Project</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>lab-1</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -715,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -758,22 +758,22 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="119" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -796,19 +796,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1">
         <v>22</v>
@@ -843,20 +843,20 @@
         <v>44207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -867,26 +867,26 @@
         <v>44209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -897,17 +897,17 @@
         <v>44214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
@@ -921,23 +921,23 @@
         <v>44216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -948,17 +948,17 @@
         <v>44221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -972,29 +972,29 @@
         <v>44223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -1008,20 +1008,20 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1032,28 +1032,28 @@
         <v>44230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
@@ -1067,20 +1067,20 @@
         <v>44235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1091,31 +1091,31 @@
         <v>44237</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1126,17 +1126,17 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -1150,20 +1150,20 @@
         <v>44244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1174,11 +1174,11 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -1189,25 +1189,25 @@
         <v>44251</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1218,21 +1218,21 @@
         <v>44256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4"/>
       <c r="J18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1243,17 +1243,17 @@
         <v>44258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1264,11 +1264,11 @@
         <v>44263</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -1280,11 +1280,11 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1295,16 +1295,16 @@
         <v>44272</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874C2BE-635D-314E-BF65-67EE0AB2FFD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6DE586-A647-424F-A091-2AA0343F748B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="4200" windowWidth="25560" windowHeight="22980" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="1300" yWindow="1300" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>week</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>w1p2</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +824,9 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6DE586-A647-424F-A091-2AA0343F748B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E78057-2822-FE40-9184-5AF4FD01A2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1300" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="12300" yWindow="6120" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>week</t>
   </si>
@@ -90,12 +90,6 @@
     <t>book_chapters</t>
   </si>
   <si>
-    <t>install-intro.html</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
     <t>git-branches.html</t>
   </si>
   <si>
@@ -352,6 +346,9 @@
   </si>
   <si>
     <t>w1p2</t>
+  </si>
+  <si>
+    <t>https://www.sds.pub/collaborating-with-git-and-github.html</t>
   </si>
 </sst>
 </file>
@@ -395,11 +392,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,8 +716,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -776,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="119" x14ac:dyDescent="0.2">
@@ -790,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -799,19 +796,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
+      <c r="L2" s="5">
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -824,8 +821,8 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>108</v>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -834,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>22</v>
@@ -848,20 +845,20 @@
         <v>44207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -874,24 +871,24 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -902,17 +899,17 @@
         <v>44214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
@@ -926,20 +923,20 @@
         <v>44216</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -953,17 +950,17 @@
         <v>44221</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -979,9 +976,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -990,16 +987,16 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -1013,20 +1010,20 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1037,28 +1034,28 @@
         <v>44230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
@@ -1072,20 +1069,20 @@
         <v>44235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1096,31 +1093,31 @@
         <v>44237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1131,17 +1128,17 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -1155,20 +1152,20 @@
         <v>44244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1179,11 +1176,11 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -1194,25 +1191,25 @@
         <v>44251</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1223,21 +1220,21 @@
         <v>44256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1248,17 +1245,17 @@
         <v>44258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1269,13 +1266,13 @@
         <v>44263</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1285,11 +1282,11 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1300,16 +1297,16 @@
         <v>44272</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E78057-2822-FE40-9184-5AF4FD01A2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BB4FDC-F47A-CC46-9A91-BB375D3E0568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="6120" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>lecture_link</t>
   </si>
   <si>
-    <t>https://viralviralvideos.com/wp-content/uploads/2013/11/2014-GIFS.gif</t>
-  </si>
-  <si>
     <t>HW 1</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>https://www.sds.pub/collaborating-with-git-and-github.html</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CeobEaNT0Mo</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -796,19 +796,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L2" s="5">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -845,11 +845,11 @@
         <v>44207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -906,10 +906,10 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
@@ -933,10 +933,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -987,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
@@ -1046,10 +1046,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
@@ -1073,16 +1073,16 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1093,16 +1093,16 @@
         <v>44237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
@@ -1111,16 +1111,16 @@
         <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1132,13 +1132,13 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -1156,16 +1156,16 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1176,11 +1176,11 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -1194,22 +1194,22 @@
         <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1224,17 +1224,17 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1245,17 +1245,17 @@
         <v>44258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BB4FDC-F47A-CC46-9A91-BB375D3E0568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E6107-5908-AF49-95FF-8622487C7B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="6120" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>week</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>https://youtu.be/CeobEaNT0Mo</t>
+  </si>
+  <si>
+    <t>w2p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/X7Cl3lwxXi4</t>
   </si>
 </sst>
 </file>
@@ -716,8 +722,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,6 +842,9 @@
       <c r="L3" s="1">
         <v>22</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -847,7 +856,9 @@
       <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E6107-5908-AF49-95FF-8622487C7B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FEF06-4D02-9648-9240-A7F8FF0A29DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="6120" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="43460" yWindow="4920" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>week</t>
   </si>
@@ -355,6 +355,33 @@
   </si>
   <si>
     <t>https://youtu.be/X7Cl3lwxXi4</t>
+  </si>
+  <si>
+    <t>w3p2</t>
+  </si>
+  <si>
+    <t>w4p1</t>
+  </si>
+  <si>
+    <t>w5p1</t>
+  </si>
+  <si>
+    <t>w6p1</t>
+  </si>
+  <si>
+    <t>w7p1</t>
+  </si>
+  <si>
+    <t>w7p2</t>
+  </si>
+  <si>
+    <t>w6p2</t>
+  </si>
+  <si>
+    <t>w8p2</t>
+  </si>
+  <si>
+    <t>w9p1</t>
   </si>
 </sst>
 </file>
@@ -721,9 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +963,9 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
@@ -963,7 +992,9 @@
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1023,7 +1054,9 @@
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1082,7 +1115,9 @@
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1106,6 +1141,9 @@
       <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1141,7 +1179,9 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1165,7 +1205,9 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1204,6 +1246,9 @@
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1233,7 +1278,9 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>81</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FEF06-4D02-9648-9240-A7F8FF0A29DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F492AA-FF72-E444-AD5D-F5807468C184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43460" yWindow="4920" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="39360" yWindow="4920" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>week</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>w9p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qjpG75BByh4</t>
   </si>
 </sst>
 </file>
@@ -748,9 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,6 +901,9 @@
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F492AA-FF72-E444-AD5D-F5807468C184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268DFF5-A68C-864E-A4C5-2EAD08ECBD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="4920" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>week</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>https://youtu.be/qjpG75BByh4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/W2mCywkvGp4</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +990,9 @@
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268DFF5-A68C-864E-A4C5-2EAD08ECBD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01494642-C3BC-AC44-8A5C-C6E1FB6A9F9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>week</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>https://youtu.be/W2mCywkvGp4</t>
+  </si>
+  <si>
+    <t>w4p2</t>
   </si>
 </sst>
 </file>
@@ -754,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1033,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>75</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01494642-C3BC-AC44-8A5C-C6E1FB6A9F9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23046AD3-039B-C242-A219-31585F12F78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>week</t>
   </si>
@@ -391,16 +391,30 @@
   </si>
   <si>
     <t>w4p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ei6aJdBGOYk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/f1aI5CKzv8E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,10 +437,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,8 +456,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,8 +775,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,6 +1039,9 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1060,6 +1080,9 @@
       <c r="L9" s="1">
         <v>2</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1385,6 +1408,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M8" r:id="rId1" xr:uid="{6D0F7BE9-D738-F14D-821A-7D1E4D6F8524}"/>
+    <hyperlink ref="M9" r:id="rId2" xr:uid="{AAFD2DFC-A3D7-624A-AB24-922CC85D7963}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23046AD3-039B-C242-A219-31585F12F78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF97762-3579-0248-8463-BDCAEA4F0DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -396,7 +396,7 @@
     <t>https://youtu.be/Ei6aJdBGOYk</t>
   </si>
   <si>
-    <t>https://youtu.be/f1aI5CKzv8E</t>
+    <t>https://youtu.be/66aGofxb-t4</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M8" r:id="rId1" xr:uid="{6D0F7BE9-D738-F14D-821A-7D1E4D6F8524}"/>
-    <hyperlink ref="M9" r:id="rId2" xr:uid="{AAFD2DFC-A3D7-624A-AB24-922CC85D7963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF97762-3579-0248-8463-BDCAEA4F0DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80334D8-96FF-4B4A-BAEC-5E9AF85411FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>week</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>https://youtu.be/66aGofxb-t4</t>
+  </si>
+  <si>
+    <t>w5p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UUxCl50aunk</t>
   </si>
 </sst>
 </file>
@@ -774,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,6 +1115,9 @@
       <c r="L10" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1119,6 +1128,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80334D8-96FF-4B4A-BAEC-5E9AF85411FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C34291-F4A1-F441-859A-D0630DC8B7C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Loose ends and review</t>
   </si>
   <si>
-    <t>This course moves very fast. This is a designated "fudge" day to catch up on topics we either did not get to or covered too quickly the first time around. Assuming we have time, we will also review many of the core concepts of the course.</t>
-  </si>
-  <si>
     <t>assignments/#labs; assignments/#homework</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>https://youtu.be/UUxCl50aunk</t>
+  </si>
+  <si>
+    <t>This course moves very fast. This is a designated *fudge* day to catch up on topics we either did not get to or covered too quickly the first time around. Assuming we have time, we will also review many of the core concepts of the course.</t>
   </si>
 </sst>
 </file>
@@ -780,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -861,19 +861,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="5">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -902,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -931,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -979,10 +979,10 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -1011,13 +1011,13 @@
         <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1060,10 +1060,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1072,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>
@@ -1142,10 +1142,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
@@ -1168,19 +1168,19 @@
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>35</v>
@@ -1212,13 +1212,13 @@
         <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1232,16 +1232,16 @@
         <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -1258,19 +1258,19 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1299,10 +1299,10 @@
         <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>64</v>
@@ -1311,13 +1311,13 @@
         <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1331,20 +1331,20 @@
         <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1359,13 +1359,13 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1410,13 +1410,13 @@
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C34291-F4A1-F441-859A-D0630DC8B7C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83518D1-F82A-2847-98FC-A1CC30529BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26060" yWindow="4660" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="8400" yWindow="1840" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>week</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>This course moves very fast. This is a designated *fudge* day to catch up on topics we either did not get to or covered too quickly the first time around. Assuming we have time, we will also review many of the core concepts of the course.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CaURv7EZVDk</t>
   </si>
 </sst>
 </file>
@@ -780,9 +783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,6 +1185,9 @@
       <c r="L12" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1422,6 +1428,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M8" r:id="rId1" xr:uid="{6D0F7BE9-D738-F14D-821A-7D1E4D6F8524}"/>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{E3FA1D02-A7B1-1C4D-A295-4303B8C8197E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83518D1-F82A-2847-98FC-A1CC30529BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EA08E-DA0B-174A-BB6F-CE75644CDFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1840" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
   <si>
     <t>week</t>
   </si>
@@ -63,9 +63,6 @@
     <t>syllabus/#final-project</t>
   </si>
   <si>
-    <t>assignments/#labs</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Many of the best visualizations require joining data from diverse sources. In this lecture we'll discuss keys for joining data, different types of mutating and filtering joins, and common errors in joining data</t>
   </si>
   <si>
-    <t>assignments/#homework</t>
-  </si>
-  <si>
     <t>Finals Week</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>We will spend most of the day looking at different types of visualizations, with a specific focus on continuous variables. We will explore how different choices with these visualizations can change your inferences.</t>
   </si>
   <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
     <t>HW 2</t>
   </si>
   <si>
@@ -219,21 +210,6 @@
     <t>We'll talk about customizations generally, introducing styling with CSS, but focus speifically on customizations to websites and dashboards.</t>
   </si>
   <si>
-    <t>assignments/#homework;  syllabus/#final-project</t>
-  </si>
-  <si>
-    <t>HW 2; Draft</t>
-  </si>
-  <si>
-    <t>Loose ends and review</t>
-  </si>
-  <si>
-    <t>assignments/#labs; assignments/#homework</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> syllabus/#final-project</t>
-  </si>
-  <si>
     <t>Lab 2; HW 1</t>
   </si>
   <si>
@@ -402,10 +378,46 @@
     <t>https://youtu.be/UUxCl50aunk</t>
   </si>
   <si>
-    <t>This course moves very fast. This is a designated *fudge* day to catch up on topics we either did not get to or covered too quickly the first time around. Assuming we have time, we will also review many of the core concepts of the course.</t>
-  </si>
-  <si>
     <t>https://youtu.be/CaURv7EZVDk</t>
+  </si>
+  <si>
+    <t>As it turned out, we didn't get very far here, so we'll do it again!</t>
+  </si>
+  <si>
+    <t>Uncertainty 1</t>
+  </si>
+  <si>
+    <t>Uncertainty 2</t>
+  </si>
+  <si>
+    <t>Draft; HW2</t>
+  </si>
+  <si>
+    <t>assignments/#peer-review</t>
+  </si>
+  <si>
+    <t>assignments/#final-project</t>
+  </si>
+  <si>
+    <t>lab-2</t>
+  </si>
+  <si>
+    <t>lab-3</t>
+  </si>
+  <si>
+    <t>homework-1</t>
+  </si>
+  <si>
+    <t>homework-2</t>
+  </si>
+  <si>
+    <t>lab-2; homework-1</t>
+  </si>
+  <si>
+    <t>assignments/#proposal</t>
+  </si>
+  <si>
+    <t>assignments/#draft; homework-2</t>
   </si>
 </sst>
 </file>
@@ -783,9 +795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -826,22 +838,22 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -855,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -864,19 +876,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L2" s="5">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,22 +902,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -916,25 +928,25 @@
         <v>44207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -945,26 +957,26 @@
         <v>44209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -975,17 +987,17 @@
         <v>44214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
@@ -999,28 +1011,28 @@
         <v>44216</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1031,25 +1043,25 @@
         <v>44221</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1060,37 +1072,37 @@
         <v>44223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1101,25 +1113,25 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1130,31 +1142,31 @@
         <v>44230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
@@ -1168,28 +1180,28 @@
         <v>44235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1197,34 +1209,34 @@
         <v>44237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1235,25 +1247,25 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -1261,25 +1273,25 @@
         <v>44244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1287,14 +1299,25 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1302,28 +1325,34 @@
         <v>44251</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1334,26 +1363,26 @@
         <v>44256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1361,17 +1390,17 @@
         <v>44258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1382,11 +1411,11 @@
         <v>44263</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1398,11 +1427,11 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1413,16 +1442,16 @@
         <v>44272</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EA08E-DA0B-174A-BB6F-CE75644CDFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962D15F-20C0-B64B-8211-AA34865110CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1840" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>week</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>assignments/#draft; homework-2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QdC033Ulu0s</t>
   </si>
 </sst>
 </file>
@@ -795,9 +798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,6 +1241,9 @@
       <c r="L13" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1458,6 +1464,7 @@
   <hyperlinks>
     <hyperlink ref="M8" r:id="rId1" xr:uid="{6D0F7BE9-D738-F14D-821A-7D1E4D6F8524}"/>
     <hyperlink ref="M12" r:id="rId2" xr:uid="{E3FA1D02-A7B1-1C4D-A295-4303B8C8197E}"/>
+    <hyperlink ref="M13" r:id="rId3" xr:uid="{5F612834-1808-4248-9308-416FF4160206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\c2-dataviz-2021\website-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962D15F-20C0-B64B-8211-AA34865110CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBF222-53FC-4E0A-919D-B9DAFDAAF41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1840" windowWidth="29440" windowHeight="19180" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8560" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Common methods for visualizing uncertainty (and their implementation w/{ggplot2}). Framing uncertainty as relative frequencies. Non-standard methods for visualizing standard errors, boostrapping, and a brief foray into hypothetical outcomes plots</t>
   </si>
   <si>
-    <t>Building (static) data dashboards with the [{flexdashboard}](https://rmarkdown.rstudio.com/flexdashboard/) package. We'll discuss layouts, including multi-page layouts, storyboards, icons, and publishing through GitHub.</t>
-  </si>
-  <si>
     <t>This lecture will focus on the [{distill}](https://rstudio.github.io/distill/) package, which helps you createrelatively simple yet customizable blogs, optimized for scientific communication. In addition to setting up the site and creating posts, we'll focus specifically on different layouts for displaying visual information (e.g., plots, tables)</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>https://youtu.be/QdC033Ulu0s</t>
+  </si>
+  <si>
+    <t>Building (static) data dashboards with the [{flexdashboard}](https://rmarkdown.rstudio.com/flexdashboard/) package. We'll discuss layouts, including multi-page layouts, storyboards, icons, and publishing through GitHub. [Lecture](https://akhilanekkanti1.github.io/Data-Dashboards-Lecture/#1).</t>
   </si>
 </sst>
 </file>
@@ -798,12 +798,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
@@ -818,7 +818,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -879,22 +879,22 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" s="5">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -920,10 +920,10 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
@@ -949,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -982,7 +982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -997,16 +997,16 @@
         <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="L6" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1017,28 +1017,28 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1064,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1078,19 +1078,19 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>62</v>
@@ -1105,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>42</v>
@@ -1134,10 +1134,10 @@
         <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1148,19 +1148,19 @@
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>61</v>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1186,25 +1186,25 @@
         <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1212,40 +1212,40 @@
         <v>44237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1256,22 +1256,22 @@
         <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -1279,25 +1279,25 @@
         <v>44244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1308,22 +1308,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1334,34 +1334,34 @@
         <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1372,23 +1372,23 @@
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1403,13 +1403,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1437,10 +1437,10 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>65</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\c2-dataviz-2021\website-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBF222-53FC-4E0A-919D-B9DAFDAAF41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D77B7-6D11-8D4C-971C-716EE7F62C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8560" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="35820" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
     <t>https://youtu.be/QdC033Ulu0s</t>
   </si>
   <si>
-    <t>Building (static) data dashboards with the [{flexdashboard}](https://rmarkdown.rstudio.com/flexdashboard/) package. We'll discuss layouts, including multi-page layouts, storyboards, icons, and publishing through GitHub. [Lecture](https://akhilanekkanti1.github.io/Data-Dashboards-Lecture/#1).</t>
+    <t>Building (static) data dashboards with the [{flexdashboard}](https://rmarkdown.rstudio.com/flexdashboard/) package. We'll discuss layouts, including multi-page layouts, storyboards, icons, and publishing through GitHub.</t>
   </si>
 </sst>
 </file>
@@ -798,12 +798,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
@@ -818,7 +818,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -894,7 +894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -952,7 +952,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D77B7-6D11-8D4C-971C-716EE7F62C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA44FC96-3B44-B946-B89C-A1C90A158278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="35820" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
   <si>
     <t>week</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Building (static) data dashboards with the [{flexdashboard}](https://rmarkdown.rstudio.com/flexdashboard/) package. We'll discuss layouts, including multi-page layouts, storyboards, icons, and publishing through GitHub.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dqRd0HPGtFA</t>
   </si>
 </sst>
 </file>
@@ -798,9 +801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1273,9 @@
       <c r="L14" s="1">
         <v>5</v>
       </c>
+      <c r="M14" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1465,6 +1471,7 @@
     <hyperlink ref="M8" r:id="rId1" xr:uid="{6D0F7BE9-D738-F14D-821A-7D1E4D6F8524}"/>
     <hyperlink ref="M12" r:id="rId2" xr:uid="{E3FA1D02-A7B1-1C4D-A295-4303B8C8197E}"/>
     <hyperlink ref="M13" r:id="rId3" xr:uid="{5F612834-1808-4248-9308-416FF4160206}"/>
+    <hyperlink ref="M14" r:id="rId4" xr:uid="{70665105-1881-1343-9BE8-49D9F24996DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA44FC96-3B44-B946-B89C-A1C90A158278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91FE7DB-EBF1-CB4C-9BEC-DA0EE70D2F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="35820" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>week</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>https://youtu.be/dqRd0HPGtFA</t>
+  </si>
+  <si>
+    <t>w8p1</t>
   </si>
 </sst>
 </file>
@@ -801,9 +804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1291,7 @@
         <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>68</v>
@@ -1314,7 +1317,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>70</v>
@@ -1340,7 +1343,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>69</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91FE7DB-EBF1-CB4C-9BEC-DA0EE70D2F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E15C05-947C-844D-A7DC-148058D5526E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>week</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>w8p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/N01vfzx2abo</t>
   </si>
 </sst>
 </file>
@@ -804,9 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,6 +1308,9 @@
       <c r="L15" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="M15" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1475,6 +1481,7 @@
     <hyperlink ref="M12" r:id="rId2" xr:uid="{E3FA1D02-A7B1-1C4D-A295-4303B8C8197E}"/>
     <hyperlink ref="M13" r:id="rId3" xr:uid="{5F612834-1808-4248-9308-416FF4160206}"/>
     <hyperlink ref="M14" r:id="rId4" xr:uid="{70665105-1881-1343-9BE8-49D9F24996DB}"/>
+    <hyperlink ref="M15" r:id="rId5" xr:uid="{13E81BE7-7EC3-F64D-91F4-5C586385C15B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E15C05-947C-844D-A7DC-148058D5526E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C80B83-948C-444D-A38D-B801AAA26ED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>week</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>https://youtu.be/N01vfzx2abo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/z4xisZX5j3U</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,6 +1340,9 @@
       <c r="L16" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C80B83-948C-444D-A38D-B801AAA26ED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913C1FA-A7E2-1F41-B633-D2C0AB6D8579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>week</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>https://youtu.be/z4xisZX5j3U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/06qd_mUlvL4</t>
   </si>
 </sst>
 </file>
@@ -810,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1381,8 +1384,11 @@
       <c r="L17" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M17" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1446,7 +1452,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -1488,6 +1494,7 @@
     <hyperlink ref="M13" r:id="rId3" xr:uid="{5F612834-1808-4248-9308-416FF4160206}"/>
     <hyperlink ref="M14" r:id="rId4" xr:uid="{70665105-1881-1343-9BE8-49D9F24996DB}"/>
     <hyperlink ref="M15" r:id="rId5" xr:uid="{13E81BE7-7EC3-F64D-91F4-5C586385C15B}"/>
+    <hyperlink ref="M17" r:id="rId6" xr:uid="{DD134EE2-DBA9-2C4F-A46E-3EE04F3FD75F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913C1FA-A7E2-1F41-B633-D2C0AB6D8579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D0109-F9A9-8544-A3AD-65DEB4BD2887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>week</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>https://youtu.be/06qd_mUlvL4</t>
+  </si>
+  <si>
+    <t>w9p2</t>
   </si>
 </sst>
 </file>
@@ -813,9 +816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1428,9 @@
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>60</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D0109-F9A9-8544-A3AD-65DEB4BD2887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0422FE-EC7D-094B-B1CD-D3062308396B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>week</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>w9p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zj3P4H0L_Ds</t>
   </si>
 </sst>
 </file>
@@ -817,8 +820,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,6 +1420,9 @@
       <c r="L18" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="M18" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1500,6 +1506,7 @@
     <hyperlink ref="M14" r:id="rId4" xr:uid="{70665105-1881-1343-9BE8-49D9F24996DB}"/>
     <hyperlink ref="M15" r:id="rId5" xr:uid="{13E81BE7-7EC3-F64D-91F4-5C586385C15B}"/>
     <hyperlink ref="M17" r:id="rId6" xr:uid="{DD134EE2-DBA9-2C4F-A46E-3EE04F3FD75F}"/>
+    <hyperlink ref="M18" r:id="rId7" xr:uid="{F81FFF83-5C77-3F42-A2BC-03AE1B7D4BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c2-dataviz-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0422FE-EC7D-094B-B1CD-D3062308396B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49323E66-AA81-5B46-86FE-99DF4167C338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="2080" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
   <si>
     <t>week</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>https://youtu.be/zj3P4H0L_Ds</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jvHjIekR810</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,6 +1449,9 @@
       <c r="I19" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="M19" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1507,6 +1513,7 @@
     <hyperlink ref="M15" r:id="rId5" xr:uid="{13E81BE7-7EC3-F64D-91F4-5C586385C15B}"/>
     <hyperlink ref="M17" r:id="rId6" xr:uid="{DD134EE2-DBA9-2C4F-A46E-3EE04F3FD75F}"/>
     <hyperlink ref="M18" r:id="rId7" xr:uid="{F81FFF83-5C77-3F42-A2BC-03AE1B7D4BA8}"/>
+    <hyperlink ref="M19" r:id="rId8" xr:uid="{5264F717-DC01-944C-995A-401543D6FC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
